--- a/data/case1/14/Plm1_6.xlsx
+++ b/data/case1/14/Plm1_6.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="true"/>
-    <col min="2" max="2" width="16.42578125" customWidth="true"/>
+    <col min="1" max="1" width="15.42578125" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.3634610751647358</v>
+        <v>-0.36509669890178031</v>
       </c>
       <c r="B1" s="0">
-        <v>0.36255749275343874</v>
+        <v>0.36419359360247938</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.2382596317549126</v>
+        <v>-0.24274345885605975</v>
       </c>
       <c r="B2" s="0">
-        <v>0.2361912205022243</v>
+        <v>0.24065892177893389</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.13324433716061179</v>
+        <v>-0.13771053154034263</v>
       </c>
       <c r="B3" s="0">
-        <v>0.13277367487000546</v>
+        <v>0.13722874648107819</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.19476734382580929</v>
+        <v>-0.19922500794805487</v>
       </c>
       <c r="B4" s="0">
-        <v>0.19379733310138292</v>
+        <v>0.19822643387503547</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.18779733396451626</v>
+        <v>-0.1922264342758826</v>
       </c>
       <c r="B5" s="0">
-        <v>0.18584096616406942</v>
+        <v>0.19021163422745513</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.073327265966729893</v>
+        <v>-0.074340989448129058</v>
       </c>
       <c r="B6" s="0">
-        <v>0.07325185252230515</v>
+        <v>0.074267089167018963</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.053251853554531436</v>
+        <v>-0.054267089659902012</v>
       </c>
       <c r="B7" s="0">
-        <v>0.053056324260005283</v>
+        <v>0.054084472414890783</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.033056325299401834</v>
+        <v>-0.034084472911467323</v>
       </c>
       <c r="B8" s="0">
-        <v>0.032832446902091306</v>
+        <v>0.033891332019213571</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.026832447815678506</v>
+        <v>-0.027891332444861305</v>
       </c>
       <c r="B9" s="0">
-        <v>0.026617165379459351</v>
+        <v>0.027709788839300309</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0037788591877614408</v>
+        <v>-0.0075580034345605895</v>
       </c>
       <c r="B10" s="0">
-        <v>0.0037802066573178195</v>
+        <v>0.0075582366384168154</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.00071979243761788325</v>
+        <v>-0.0030582370589833374</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.00071991777381086308</v>
+        <v>0.0030565516539304838</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.0067199168544855858</v>
+        <v>0.0029434479174401673</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.0067312039427873671</v>
+        <v>-0.0029506768306593045</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.012731203024923587</v>
+        <v>0.0089506764024154251</v>
       </c>
       <c r="B13" s="0">
-        <v>-0.012737427142481828</v>
+        <v>-0.0089540777107197655</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.024737426168782051</v>
+        <v>0.02095407725099907</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.024760885385466835</v>
+        <v>-0.020971344561718119</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.030760884470820038</v>
+        <v>0.026971344134940622</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.030807755391879077</v>
+        <v>-0.027008085385835656</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.036807754481152699</v>
+        <v>0.033008084960875372</v>
       </c>
       <c r="B16" s="0">
-        <v>-0.036927058795984014</v>
+        <v>-0.033105374594412762</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.042927057894181608</v>
+        <v>0.039105374173623808</v>
       </c>
       <c r="B17" s="0">
-        <v>-0.043018265670865752</v>
+        <v>-0.039182502775344297</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.11429786185960111</v>
+        <v>-0.11145013514643054</v>
       </c>
       <c r="B18" s="0">
-        <v>0.11413312560836175</v>
+        <v>0.11128840367103621</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.02709663185446809</v>
+        <v>-0.027097145993723704</v>
       </c>
       <c r="B19" s="0">
-        <v>0.02701324205804978</v>
+        <v>0.027013748773502932</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.018013242920710937</v>
+        <v>-0.018013749173466209</v>
       </c>
       <c r="B20" s="0">
-        <v>0.018004233739386422</v>
+        <v>0.018004303985692971</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0090042346031271592</v>
+        <v>-0.0090043043862406691</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0089999991357023745</v>
+        <v>0.0089999995990508452</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.093946884214298976</v>
+        <v>-0.093948390644321478</v>
       </c>
       <c r="B22" s="0">
-        <v>0.093634522260561681</v>
+        <v>0.093635084581233485</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.084634523139809126</v>
+        <v>-0.084635084990598131</v>
       </c>
       <c r="B23" s="0">
-        <v>0.084126659252658165</v>
+        <v>0.084126937905486088</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.042126660458825071</v>
+        <v>-0.042126938497167643</v>
       </c>
       <c r="B24" s="0">
-        <v>0.041999998787736637</v>
+        <v>0.041999999404983335</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.094936143588732591</v>
+        <v>-0.094943253012427675</v>
       </c>
       <c r="B25" s="0">
-        <v>0.094693539560577022</v>
+        <v>0.09469756434834764</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.08869354046061062</v>
+        <v>-0.088697564767233672</v>
       </c>
       <c r="B26" s="0">
-        <v>0.08837879957501471</v>
+        <v>0.088380766957772749</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.08237880047960644</v>
+        <v>-0.082380767379118147</v>
       </c>
       <c r="B27" s="0">
-        <v>0.081294442478639262</v>
+        <v>0.081296591040773691</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.075294443399894995</v>
+        <v>-0.075296591471190943</v>
       </c>
       <c r="B28" s="0">
-        <v>0.074543281035166054</v>
+        <v>0.074545368421570224</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.062543282026329194</v>
+        <v>-0.062545368890431163</v>
       </c>
       <c r="B29" s="0">
-        <v>0.062171653714997888</v>
+        <v>0.062172916003341072</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.042171654787766855</v>
+        <v>-0.042172916517877912</v>
       </c>
       <c r="B30" s="0">
-        <v>0.042019102190701485</v>
+        <v>0.042020230301042183</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.027019103224370511</v>
+        <v>-0.027020230793461053</v>
       </c>
       <c r="B31" s="0">
-        <v>0.027000530674319734</v>
+        <v>0.027000809856669861</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0060005317661051549</v>
+        <v>-0.0060008103816944214</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0059999990503589729</v>
+        <v>0.0059999995545672036</v>
       </c>
     </row>
   </sheetData>
